--- a/inst/TRA2506_template.xlsx
+++ b/inst/TRA2506_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://departmentfortransportuk-my.sharepoint.com/personal/luke_shaw_dft_gov_uk/Documents/My Documents/1_Keep Files/TRA25 Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TSTATS\TS_GROUPS\COMM\06 Development Projects\4_Traffic publications\2018 RAP project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Source:</t>
   </si>
@@ -112,28 +112,13 @@
     <t>Car and goods vehicle traffic (vehicle kilometres) by road class</t>
   </si>
   <si>
-    <t>Car and goods vehicle traffic (vehicle kilometres) by road class in Great Britain, rolling annual totals from 1994 - not seasonally adjusted</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle kilometres) by road class in Great Britain, rolling annual totals from 1994 - rolling annual index numbers (not seasonally adjusted)</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle kilometres) by road class in Great Britain, rolling annual totals from 1994 - percentage change on previous year (not seasonally adjusted)</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle kilometres) by road class in Great Britain, quarterly from 1994 - seasonally adjusted</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle kilometres) by road class in Great Britain, quarterly from 1994 - not seasonally adjusted</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle kilometres) by road class in Great Britain, quarterly from 1994 - seasonally adjusted index numbers</t>
-  </si>
-  <si>
-    <t>Car and goods vehicle traffic (vehicle kilometres) by road class in Great Britain, quarterly from 1994 - percentage change on same quarter in previous year (seasonally adjusted figures)</t>
-  </si>
-  <si>
     <t>roadtraff.stats@dft.gov.uk</t>
+  </si>
+  <si>
+    <t>Car and goods vehicle traffic (vehicle kilometres) by road class in Great Britain, rolling annual totals from 1994</t>
+  </si>
+  <si>
+    <t>Car and goods vehicle traffic (vehicle kilometres) by road class in Great Britain, quarterly from 1994</t>
   </si>
 </sst>
 </file>
@@ -290,12 +275,12 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1630,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B11:Z40"/>
+  <dimension ref="B11:Z37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,16 +1696,16 @@
       <c r="Q19" s="15"/>
     </row>
     <row r="20" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
+      <c r="B20" s="16"/>
     </row>
     <row r="21" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="str">
+      <c r="B21" s="17" t="str">
         <f>HYPERLINK("#TRA2506a!A1","TRA2506a")</f>
         <v>TRA2506a</v>
       </c>
       <c r="C21" s="15"/>
       <c r="E21" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="10"/>
@@ -1729,7 +1714,7 @@
       <c r="J21" s="15"/>
     </row>
     <row r="22" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="str">
+      <c r="B22" s="17" t="str">
         <f>HYPERLINK("#TRA2506b!A1","TRA2506b")</f>
         <v>TRA2506b</v>
       </c>
@@ -1744,13 +1729,13 @@
       <c r="J22" s="15"/>
     </row>
     <row r="23" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="str">
+      <c r="B23" s="17" t="str">
         <f>HYPERLINK("#TRA2506c!A1","TRA2506c")</f>
         <v>TRA2506c</v>
       </c>
       <c r="C23" s="15"/>
       <c r="E23" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="10"/>
@@ -1759,13 +1744,13 @@
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="str">
-        <f>HYPERLINK("#TRA2506d!A1","TRA2506d")</f>
-        <v>TRA2506d</v>
+      <c r="B24" s="17" t="str">
+        <f>HYPERLINK("#TRA2506e!A1","TRA2506e")</f>
+        <v>TRA2506e</v>
       </c>
       <c r="C24" s="15"/>
       <c r="E24" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1781,277 +1766,218 @@
       <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="str">
-        <f>HYPERLINK("#TRA2506e!A1","TRA2506e")</f>
-        <v>TRA2506e</v>
-      </c>
+      <c r="B25" s="15"/>
       <c r="C25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
     </row>
     <row r="26" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="str">
-        <f>HYPERLINK("#TRA2506f!A1","TRA2506f")</f>
-        <v>TRA2506f</v>
+      <c r="B26" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="E26" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
     </row>
     <row r="27" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="str">
-        <f>HYPERLINK("#TRA2506g!A1","TRA2506g")</f>
-        <v>TRA2506g</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="E27" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
     </row>
     <row r="28" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="B28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
     </row>
     <row r="29" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="B29" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
+      <c r="B30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-    </row>
-    <row r="33" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-    </row>
-    <row r="34" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="I34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-    </row>
-    <row r="37" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="15"/>
-    </row>
-    <row r="38" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15" t="s">
+      <c r="H35" s="15"/>
+      <c r="I35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="13" t="s">
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M38" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-    </row>
-    <row r="40" spans="2:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="14"/>
+      <c r="M35" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E31:P31"/>
-    <mergeCell ref="E32:O33"/>
+    <mergeCell ref="E28:P28"/>
+    <mergeCell ref="E29:O30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E31" r:id="rId1"/>
-    <hyperlink ref="E32" r:id="rId2"/>
-    <hyperlink ref="M38" r:id="rId3" display="roadtraff.stats@dft.gsi.gov.uk"/>
+    <hyperlink ref="E28" r:id="rId1"/>
+    <hyperlink ref="E29" r:id="rId2"/>
+    <hyperlink ref="M35" r:id="rId3" display="roadtraff.stats@dft.gsi.gov.uk"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" scale="64" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
